--- a/WebApplicationTestingProject/src/com/OrangeHRMApplicationLoginTestDataFiles/OrangeHRMApplicationLoginTestData.xlsx
+++ b/WebApplicationTestingProject/src/com/OrangeHRMApplicationLoginTestDataFiles/OrangeHRMApplicationLoginTestData.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\OHRMAutomation\WebApplicationTesting\src\com\OrangeHRMApplicationLoginTestDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\OHRMAutomation\WebApplicationTestingProject\src\com\OrangeHRMApplicationLoginTestDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C6AF2676-959A-4936-A247-B8C4A5362B91}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEFB273-4361-4959-BFDA-457FA161DF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="10300" windowWidth="19420" xWindow="-110" xr2:uid="{CE78DB21-A94C-4786-B5B6-1EEF316CD3BB}" yWindow="-110"/>
+    <workbookView xWindow="3220" yWindow="2770" windowWidth="14400" windowHeight="7310" xr2:uid="{CE78DB21-A94C-4786-B5B6-1EEF316CD3BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="logInTestData" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet1" r:id="rId2" sheetId="2"/>
+    <sheet name="logInTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>UserName</t>
   </si>
@@ -51,15 +52,11 @@
   <si>
     <t>Successfully Navigated to OrangeHRM Application Home Page - PASS</t>
   </si>
-  <si>
-    <t>Successfully Navigated to OrangeHRM Application HomePage - PASS</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,19 +92,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -124,10 +121,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -162,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -214,7 +211,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -325,21 +322,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -356,7 +353,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -408,26 +405,60 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84933738-9080-4518-90CC-049C0E6C720B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84933738-9080-4518-90CC-049C0E6C720B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.54296875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.54296875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="67.54296875" collapsed="true"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="67.54296875" customWidth="1" collapsed="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E52AC485-976E-43D3-90B6-BD40584FA205}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0570DA-BBE6-47EC-B5E4-92818729E482}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -450,45 +481,39 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{A13BFCA7-E15F-4BFD-9EF0-889F190A2E75}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{308D79FE-3ED0-47C4-B90E-B5B2A97BD43B}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0570DA-BBE6-47EC-B5E4-92818729E482}">
-  <dimension ref="A1:B2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15698752-7637-4363-B5A2-BF0DF7BCF5B6}">
+  <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2" xr:uid="{308D79FE-3ED0-47C4-B90E-B5B2A97BD43B}"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>